--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_VDT_QT_DeNghiQuyetToan.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_VDT_QT_DeNghiQuyetToan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\28-8-clonecode\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="5004" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="QTDAHT" sheetId="1" r:id="rId1"/>
@@ -261,21 +261,12 @@
     <t>&lt;#listData.sSoBaoCao&gt;</t>
   </si>
   <si>
-    <t>&lt;#listData.dThoiGianLapBaoCao&gt;</t>
-  </si>
-  <si>
     <t>&lt;#listData.sTenDuAn&gt;</t>
   </si>
   <si>
     <t>&lt;#listData.sMaDuAn&gt;</t>
   </si>
   <si>
-    <t>&lt;#listData.dThoiGianKhoiCong&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#listData.dThoiGianHoanThanh&gt;</t>
-  </si>
-  <si>
     <t>&lt;#listData1.sTen&gt;</t>
   </si>
   <si>
@@ -358,6 +349,15 @@
   </si>
   <si>
     <t>&lt;#ChiPhi.sMaDuAn&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#listData.sThoiGianHoanThanh&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#listData.sThoiGianKhoiCong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#listData.sThoiGianLapBaoCao&gt;</t>
   </si>
 </sst>
 </file>
@@ -825,6 +825,40 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -852,16 +886,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,60 +898,32 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1212,16 +1212,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="3" customWidth="1"/>
-    <col min="2" max="5" width="31.5546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="31.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="31.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="31.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
@@ -1238,7 +1238,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="24.9" customHeight="1">
+    <row r="2" spans="1:8" ht="24.95" customHeight="1">
       <c r="A2" s="67" t="s">
         <v>71</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="16.8">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="24"/>
       <c r="B3" s="21"/>
       <c r="C3" s="25"/>
@@ -1262,7 +1262,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="66" t="s">
         <v>31</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="25"/>
@@ -1284,17 +1284,17 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="16.8" customHeight="1">
+    <row r="6" spans="1:8" ht="16.899999999999999" customHeight="1">
       <c r="B6" s="32"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="27"/>
@@ -1303,44 +1303,44 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="26"/>
       <c r="B9" s="22"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="63" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
+      <c r="A10" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="61"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="65"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="28" t="s">
         <v>40</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2">
+    <row r="12" spans="1:8" ht="31.5">
       <c r="A12" s="33">
         <v>1</v>
       </c>
@@ -1356,53 +1356,47 @@
         <v>72</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>75</v>
-      </c>
       <c r="F12" s="33" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6">
-      <c r="A14" s="58" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
+      <c r="A14" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="58"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="59"/>
+      <c r="G14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:G14"/>
@@ -1414,6 +1408,12 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1428,13 +1428,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="9" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="37"/>
       <c r="B1" s="35"/>
       <c r="C1" s="38"/>
@@ -1445,7 +1445,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="38"/>
     </row>
-    <row r="2" spans="1:9" ht="16.8">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="67" t="s">
         <v>44</v>
       </c>
@@ -1458,115 +1458,115 @@
       <c r="H2" s="67"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="37"/>
       <c r="B3" s="35"/>
       <c r="C3" s="38"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="63" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="61"/>
+    <row r="5" spans="1:9" ht="31.5">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="39" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="61"/>
-    </row>
-    <row r="6" spans="1:9" ht="46.8">
+      <c r="I5" s="73"/>
+    </row>
+    <row r="6" spans="1:9" ht="47.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="31.2">
+    </row>
+    <row r="7" spans="1:9" ht="31.5">
       <c r="A7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="58" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1592,19 +1592,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="10" width="17.77734375" customWidth="1"/>
+    <col min="6" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.8">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="42"/>
       <c r="B1" s="40"/>
       <c r="C1" s="43"/>
@@ -1616,21 +1616,21 @@
       <c r="I1" s="40"/>
       <c r="J1" s="43"/>
     </row>
-    <row r="2" spans="1:10" ht="16.8">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.8">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -1642,116 +1642,116 @@
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="1:10" ht="16.8" customHeight="1">
+    <row r="4" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="84" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="81">
+    <row r="6" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A6" s="60">
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40.15" customHeight="1">
+      <c r="A7" s="60">
+        <v>2</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="81" t="s">
+      <c r="C7" s="33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="81">
-        <v>2</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="86"/>
+      <c r="F7" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="74"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="57"/>
       <c r="B8" s="45"/>
       <c r="C8" s="46"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:10" ht="16.8">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="46"/>
       <c r="D10" s="41"/>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="1:10" ht="46.8">
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+    </row>
+    <row r="11" spans="1:10" ht="47.25">
       <c r="A11" s="56" t="s">
         <v>55</v>
       </c>
@@ -1776,47 +1776,47 @@
       <c r="H11" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="82" t="s">
+      <c r="J11" s="61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.8">
+    <row r="12" spans="1:10" ht="47.25">
       <c r="A12" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="F12" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="H12" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="I12" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="88" t="s">
+      <c r="J12" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="75"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="58"/>
       <c r="B13" s="45"/>
       <c r="C13" s="46"/>
       <c r="D13" s="41"/>
@@ -1831,7 +1831,7 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="87"/>
+      <c r="F14" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1857,12 +1857,12 @@
       <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="26.88671875" customWidth="1"/>
+    <col min="1" max="7" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="50"/>
       <c r="B1" s="49"/>
       <c r="C1" s="51"/>
@@ -1871,42 +1871,42 @@
       <c r="F1" s="49"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" ht="16.8">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6">
-      <c r="A4" s="73" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="G4" s="90"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="53" t="s">
         <v>68</v>
       </c>
@@ -1914,31 +1914,31 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.2">
-      <c r="A6" s="77">
+    <row r="6" spans="1:7" ht="31.5">
+      <c r="A6" s="59">
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="G6" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="41"/>
@@ -1977,12 +1977,12 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="79.8">
+    <row r="9" spans="1:14" ht="77.25">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.2">
+    <row r="10" spans="1:14" ht="31.5">
       <c r="H10" s="5" t="s">
         <v>10</v>
       </c>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_VDT_QT_DeNghiQuyetToan.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_VDT_QT_DeNghiQuyetToan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-anhdnt\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="5010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QTDAHT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>Mã dự án</t>
   </si>
@@ -176,9 +176,6 @@
     <t>NGUỒN VỐN ĐẦU TƯ</t>
   </si>
   <si>
-    <t>Đơn vị tính: nghìn đồng</t>
-  </si>
-  <si>
     <t>Tên nguồn vốn</t>
   </si>
   <si>
@@ -339,25 +336,25 @@
     <t xml:space="preserve">Chi phí thiệt hại do các nguyên nhân bất thường </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;#ChiPhi.fChiPhiThietHai&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ChiPhi.fChiPhiKhongTaoNenTaiSan&gt;</t>
-  </si>
-  <si>
     <t>&lt;#ChiPhi.sTenDuAn&gt;</t>
   </si>
   <si>
     <t>&lt;#ChiPhi.sMaDuAn&gt;</t>
   </si>
   <si>
-    <t>&lt;#listData.sThoiGianHoanThanh&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#listData.sThoiGianKhoiCong&gt;</t>
-  </si>
-  <si>
     <t>&lt;#listData.sThoiGianLapBaoCao&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;#ChiPhi.sChiPhiThietHai&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChiPhi.sChiPhiKhongTaoNenTaiSan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#listData.dThoiGianKhoiCongAsString&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#listData.dThoiGianHoanThanhAsString&gt;</t>
   </si>
 </sst>
 </file>
@@ -841,22 +838,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -884,6 +872,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,30 +1222,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
       <c r="G1" s="30"/>
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67" t="s">
+      <c r="A2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="30"/>
       <c r="H2" s="19"/>
     </row>
@@ -1263,16 +1260,16 @@
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
@@ -1286,12 +1283,12 @@
     </row>
     <row r="6" spans="1:8" ht="16.899999999999999" customHeight="1">
       <c r="B6" s="32"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
@@ -1307,40 +1304,40 @@
       <c r="A9" s="26"/>
       <c r="B9" s="22"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="D9" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="73"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="77"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="28" t="s">
         <v>40</v>
       </c>
@@ -1353,22 +1350,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>74</v>
-      </c>
       <c r="F12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
@@ -1376,27 +1373,33 @@
         <v>3</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="G14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:G14"/>
@@ -1408,12 +1411,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1424,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1446,98 +1443,98 @@
       <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="37"/>
       <c r="B3" s="35"/>
       <c r="C3" s="38"/>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="75" t="s">
+      <c r="E4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="F4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="G4" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31.5">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="31.5">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="39" t="s">
+      <c r="H5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="73"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="1:9" ht="47.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="G6" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5">
@@ -1554,19 +1551,19 @@
       <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1592,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1617,18 +1614,18 @@
       <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="A2" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="55"/>
@@ -1644,10 +1641,10 @@
     </row>
     <row r="4" spans="1:10" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>54</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
@@ -1656,21 +1653,21 @@
       <c r="G4" s="84"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="62" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="63" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="40.15" customHeight="1">
@@ -1678,17 +1675,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="40.15" customHeight="1">
@@ -1696,17 +1693,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="86"/>
       <c r="F7" s="60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
@@ -1723,10 +1720,10 @@
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="11" spans="1:10" ht="47.25">
       <c r="A11" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>1</v>
@@ -1762,57 +1759,57 @@
         <v>0</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="53" t="s">
+      <c r="H11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="I11" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="J11" s="61" t="s">
         <v>63</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="47.25">
       <c r="A12" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="D12" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="F12" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="H12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="64" t="s">
         <v>94</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
@@ -1831,7 +1828,7 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1851,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1872,19 +1869,19 @@
       <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="A2" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>1</v>
@@ -1893,11 +1890,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="90"/>
     </row>
@@ -1908,10 +1905,10 @@
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
       <c r="F5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5">
@@ -1919,20 +1916,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="65" t="s">
+      <c r="G6" s="64" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
@@ -1947,12 +1944,6 @@
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="e">
-        <f>+F12,F14,G14,G13</f>
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
